--- a/Last 6 races at Atlanta.xlsx
+++ b/Last 6 races at Atlanta.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>2023 Finishing Position</t>
+  </si>
+  <si>
+    <t>2024 Finishing Position</t>
   </si>
   <si>
     <t>Average Position</t>
@@ -261,11 +264,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1962713485"/>
-        <c:axId val="1700713817"/>
+        <c:axId val="67587524"/>
+        <c:axId val="1144004698"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1962713485"/>
+        <c:axId val="67587524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -317,10 +320,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1700713817"/>
+        <c:crossAx val="1144004698"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1700713817"/>
+        <c:axId val="1144004698"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1962713485"/>
+        <c:crossAx val="67587524"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -654,171 +657,174 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="13.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="C2" s="1">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="F2" s="1">
         <v>1.0</v>
       </c>
-      <c r="E2" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>32.0</v>
-      </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" ref="H2:H6" si="1">(B2+C2+D2+E2+F2+G2)/6</f>
-        <v>15.5</v>
+        <v>16.83333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C3" s="1">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0</v>
+        <v>32.0</v>
       </c>
       <c r="E3" s="1">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="F3" s="1">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="G3" s="1">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="1"/>
-        <v>14.83333333</v>
+        <v>18.83333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" s="1">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="D4" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="1">
         <v>23.0</v>
       </c>
-      <c r="E4" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3.0</v>
-      </c>
       <c r="G4" s="1">
-        <v>23.0</v>
+        <v>34.0</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>16.16666667</v>
+        <v>18.33333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="C5" s="1">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" s="1">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="E5" s="1">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" s="1">
-        <v>4.0</v>
+        <v>31.0</v>
       </c>
       <c r="G5" s="1">
-        <v>31.0</v>
+        <v>13.0</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>18.66666667</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="C6" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D6" s="1">
         <v>14.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>13.0</v>
-      </c>
       <c r="E6" s="1">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="F6" s="1">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="G6" s="1">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>18.16666667</v>
+        <v>16.33333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>0.0</v>
@@ -830,211 +836,209 @@
         <v>0.0</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="G7" s="1">
         <v>3.0</v>
       </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="4">
-        <f>(B7+C7+D7+E7+F7+G7)/2</f>
-        <v>9.5</v>
+        <f>(B7+C7+D7+E7+F7+G7)/3</f>
+        <v>6.333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>24.0</v>
       </c>
       <c r="C8" s="1">
-        <v>24.0</v>
+        <v>14.0</v>
       </c>
       <c r="D8" s="1">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F8" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G8" s="1">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="H8" s="4">
-        <f>(B8+C8+D8+E8+F8+G8)/6</f>
-        <v>14.16666667</v>
+        <f t="shared" ref="H8:H12" si="2">(B8+C8+D8+E8+F8+G8)/6</f>
+        <v>14.33333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="D9" s="1">
-        <v>37.0</v>
+        <v>34.0</v>
       </c>
       <c r="E9" s="1">
-        <v>34.0</v>
+        <v>12.0</v>
       </c>
       <c r="F9" s="1">
-        <v>12.0</v>
+        <v>33.0</v>
       </c>
       <c r="G9" s="1">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="H9" s="4">
-        <f>(B9+C9+D9+E9+F9+G9)/4</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>25.33333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="C10" s="1">
         <v>15.0</v>
       </c>
       <c r="D10" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="E10" s="1">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="F10" s="1">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="G10" s="1">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" ref="H10:H12" si="2">(B10+C10+D10+E10+F10+G10)/6</f>
-        <v>19.16666667</v>
+        <f t="shared" si="2"/>
+        <v>20.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="C11" s="1">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="D11" s="1">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
       <c r="E11" s="1">
-        <v>13.0</v>
+        <v>31.0</v>
       </c>
       <c r="F11" s="1">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="G11" s="1">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="2"/>
-        <v>21.66666667</v>
+        <v>26.66666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F12" s="1">
         <v>5.0</v>
       </c>
-      <c r="C12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10.0</v>
-      </c>
       <c r="G12" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>12.16666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>38.0</v>
+        <v>7.0</v>
       </c>
       <c r="C13" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D13" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G13" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H13" s="4">
         <f>(B13+C13+D13+E13+F13+G13)/5</f>
-        <v>13</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="1">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D14" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E14" s="1">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="F14" s="1">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="G14" s="1">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="H14" s="4">
         <f>(B14+C14+D14+E14+F14+G14)/6</f>
-        <v>13.16666667</v>
+        <v>13.66666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -1046,85 +1050,85 @@
         <v>0.0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F15" s="1">
-        <v>9.0</v>
+        <v>34.0</v>
       </c>
       <c r="G15" s="1">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="H15" s="4">
-        <f>(B15+C15+D15+E15+F15+G15)/2</f>
-        <v>21.5</v>
+        <f>(B15+C15+D15+E15+F15+G15)/3</f>
+        <v>17.66666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="C16" s="1">
         <v>7.0</v>
       </c>
-      <c r="C16" s="1">
-        <v>16.0</v>
-      </c>
       <c r="D16" s="1">
-        <v>7.0</v>
+        <v>33.0</v>
       </c>
       <c r="E16" s="1">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F16" s="1">
-        <v>35.0</v>
+        <v>15.0</v>
       </c>
       <c r="G16" s="1">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" ref="H16:H17" si="3">(B16+C16+D16+E16+F16+G16)/6</f>
-        <v>18.83333333</v>
+        <v>19.16666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="C17" s="1">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="D17" s="1">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="E17" s="1">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="F17" s="1">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="G17" s="1">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="3"/>
-        <v>15.16666667</v>
+        <v>18.33333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
       </c>
       <c r="C18" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>18.0</v>
       </c>
       <c r="E18" s="1">
         <v>0.0</v>
@@ -1142,88 +1146,88 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="C19" s="1">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="D19" s="1">
         <v>2.0</v>
       </c>
       <c r="E19" s="1">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="F19" s="1">
-        <v>13.0</v>
+        <v>35.0</v>
       </c>
       <c r="G19" s="1">
-        <v>35.0</v>
+        <v>7.0</v>
       </c>
       <c r="H19" s="4">
-        <f>(B19+C19+D19+E19+F19+G19)/6</f>
-        <v>14.5</v>
+        <f t="shared" ref="H19:H20" si="4">(B19+C19+D19+E19+F19+G19)/6</f>
+        <v>13.33333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="D20" s="1">
-        <v>32.0</v>
+        <v>3.0</v>
       </c>
       <c r="E20" s="1">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="F20" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G20" s="1">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="H20" s="4">
-        <f>(B20+C20+D20+E20+F20+G20)/5</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>10.33333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>25.0</v>
       </c>
       <c r="C21" s="1">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="1">
         <v>0.0</v>
       </c>
-      <c r="E21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E21" s="5">
         <v>28.0</v>
       </c>
+      <c r="F21" s="1">
+        <v>24.0</v>
+      </c>
       <c r="G21" s="1">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="H21" s="4">
         <f>(B21+C21+D21+E21+F21+G21)/4</f>
-        <v>25.5</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -1235,55 +1239,55 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.0</v>
       </c>
-      <c r="F22" s="1">
-        <v>18.0</v>
-      </c>
       <c r="G22" s="1">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H22" s="4">
-        <f>(B22+C22+D22+E22+F22+G22)/1</f>
-        <v>18</v>
+        <f t="shared" ref="H22:H23" si="5">(B22+C22+D22+E22+F22+G22)/6</f>
+        <v>7.833333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="C23" s="1">
-        <v>29.0</v>
+        <v>11.0</v>
       </c>
       <c r="D23" s="1">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="E23" s="1">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="F23" s="1">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="G23" s="1">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="H23" s="4">
-        <f>(B23+C23+D23+E23+F23+G23)/6</f>
-        <v>17.83333333</v>
+        <f t="shared" si="5"/>
+        <v>16.16666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C24" s="1">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="1">
         <v>0.0</v>
@@ -1298,278 +1302,278 @@
         <v>0.0</v>
       </c>
       <c r="H24" s="4">
-        <f>(B24+C24+D24+E24+F24+G24)/2</f>
-        <v>26.5</v>
+        <f>(B24+C24+D24+E24+F24+G24)/1</f>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="C25" s="1">
-        <v>6.0</v>
+        <v>28.0</v>
       </c>
       <c r="D25" s="1">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="E25" s="1">
-        <v>29.0</v>
+        <v>5.0</v>
       </c>
       <c r="F25" s="1">
-        <v>5.0</v>
+        <v>27.0</v>
       </c>
       <c r="G25" s="1">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" ref="H25:H30" si="4">(B25+C25+D25+E25+F25+G25)/6</f>
-        <v>20.16666667</v>
+        <f t="shared" ref="H25:H33" si="6">(B25+C25+D25+E25+F25+G25)/6</f>
+        <v>20.83333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C26" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D26" s="1">
         <v>5.0</v>
       </c>
-      <c r="D26" s="1">
-        <v>17.0</v>
-      </c>
       <c r="E26" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F26" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G26" s="1">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="4"/>
-        <v>7.333333333</v>
+        <f t="shared" si="6"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
-        <v>12.0</v>
+        <v>37.0</v>
       </c>
       <c r="C27" s="1">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="D27" s="1">
         <v>31.0</v>
       </c>
       <c r="E27" s="1">
-        <v>31.0</v>
+        <v>17.0</v>
       </c>
       <c r="F27" s="1">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="G27" s="1">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="C28" s="1">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="D28" s="1">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
       <c r="E28" s="1">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="F28" s="1">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="G28" s="1">
-        <v>17.0</v>
+        <v>28.0</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="4"/>
-        <v>14.5</v>
+        <f t="shared" si="6"/>
+        <v>16.66666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="D29" s="1">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="E29" s="1">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
       <c r="F29" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G29" s="1">
-        <v>6.0</v>
+        <v>33.0</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="4"/>
-        <v>12.66666667</v>
+        <f t="shared" si="6"/>
+        <v>13.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
-        <v>17.0</v>
+        <v>36.0</v>
       </c>
       <c r="C30" s="1">
-        <v>36.0</v>
+        <v>4.0</v>
       </c>
       <c r="D30" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E30" s="1">
-        <v>6.0</v>
+        <v>29.0</v>
       </c>
       <c r="F30" s="1">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="G30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="4"/>
-        <v>15.66666667</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>0.0</v>
       </c>
       <c r="C31" s="1">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D31" s="1">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="E31" s="1">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="F31" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G31" s="1">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="H31" s="4">
-        <f>(B31+C31+D31+E31+F31+G31)/4</f>
-        <v>18.75</v>
+        <f t="shared" si="6"/>
+        <v>16.83333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="C32" s="1">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="D32" s="1">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="E32" s="1">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="F32" s="1">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
       <c r="G32" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" ref="H32:H33" si="5">(B32+C32+D32+E32+F32+G32)/6</f>
-        <v>18.33333333</v>
+        <f t="shared" si="6"/>
+        <v>16.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C33" s="1">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="D33" s="1">
         <v>35.0</v>
       </c>
       <c r="E33" s="1">
-        <v>35.0</v>
+        <v>20.0</v>
       </c>
       <c r="F33" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G33" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="5"/>
-        <v>21.5</v>
+        <f t="shared" si="6"/>
+        <v>24.16666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>0.0</v>
       </c>
       <c r="C34" s="1">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D34" s="1">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="E34" s="1">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="F34" s="1">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="G34" s="1">
-        <v>28.0</v>
+        <v>11.0</v>
       </c>
       <c r="H34" s="4">
-        <f>(B34+C34+D34+E34+F34+G34)/4</f>
-        <v>24.25</v>
+        <f>(B34+C34+D34+E34+F34+G34)/5</f>
+        <v>21.6</v>
       </c>
     </row>
     <row r="35">
@@ -1580,7 +1584,10 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4">
+        <f>(B35+C35+D35+E35+F35+G35)/6</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="6"/>
